--- a/ghais_metadata.xlsx
+++ b/ghais_metadata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1667917/Documents/Pipelines/S_Aureus_Analysis_Pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D3C274-ED22-7548-A596-7DDDF4081E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA004966-E75A-8946-8209-B0353ABE0046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{6EC7F152-39E1-484B-BFDB-A286F0112AF6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6EC7F152-39E1-484B-BFDB-A286F0112AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>C22</t>
   </si>
@@ -707,6 +707,18 @@
   </si>
   <si>
     <t>/hpcfs/users/a1667917/Staph_Final_Assemblies/Complete_Assembly_Output/TMP/FASTP/C357_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>C265</t>
+  </si>
+  <si>
+    <t>C324</t>
+  </si>
+  <si>
+    <t>C325</t>
+  </si>
+  <si>
+    <t>C363</t>
   </si>
 </sst>
 </file>
@@ -782,12 +794,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C2D77E-5C22-1340-9020-FDAB41A6C12C}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1949,6 +1962,28 @@
         <v>223</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1415</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>5767</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
